--- a/assets/PCR_Bot_Template.xlsx
+++ b/assets/PCR_Bot_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\University\Code\PY\PCR_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\University\Code\PY\PCR_Bot\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9343FF04-B198-4778-8A45-ACB6F7CE7CB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56DAC9-7C4E-463B-B854-3230F09E830C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
   <si>
     <t xml:space="preserve">       日期
 刀序</t>
@@ -1042,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3CF3A3-681F-48BC-A676-4627A984E22F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1053,44 +1053,554 @@
     <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <v>8000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4">
         <v>12000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5">
         <v>20000000</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>6000000</v>
+      </c>
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8000000</v>
+      </c>
+      <c r="C7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>10000000</v>
+      </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>12000000</v>
+      </c>
+      <c r="C9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>20000000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>6000000</v>
+      </c>
+      <c r="C11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>8000000</v>
+      </c>
+      <c r="C12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>10000000</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>12000000</v>
+      </c>
+      <c r="C14">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>20000000</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>6000000</v>
+      </c>
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>8000000</v>
+      </c>
+      <c r="C17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>10000000</v>
+      </c>
+      <c r="C18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>12000000</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>20000000</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>6000000</v>
+      </c>
+      <c r="C21">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>8000000</v>
+      </c>
+      <c r="C22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>10000000</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>12000000</v>
+      </c>
+      <c r="C24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>20000000</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>6000000</v>
+      </c>
+      <c r="C26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>8000000</v>
+      </c>
+      <c r="C27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>10000000</v>
+      </c>
+      <c r="C28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>12000000</v>
+      </c>
+      <c r="C29">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>20000000</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>6000000</v>
+      </c>
+      <c r="C31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>8000000</v>
+      </c>
+      <c r="C32">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>10000000</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>12000000</v>
+      </c>
+      <c r="C34">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>20000000</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>6000000</v>
+      </c>
+      <c r="C36">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>8000000</v>
+      </c>
+      <c r="C37">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>10000000</v>
+      </c>
+      <c r="C38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>12000000</v>
+      </c>
+      <c r="C39">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>20000000</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>6000000</v>
+      </c>
+      <c r="C41">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>8000000</v>
+      </c>
+      <c r="C42">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>10000000</v>
+      </c>
+      <c r="C43">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>12000000</v>
+      </c>
+      <c r="C44">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>20000000</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>6000000</v>
+      </c>
+      <c r="C46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>8000000</v>
+      </c>
+      <c r="C47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>10000000</v>
+      </c>
+      <c r="C48">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>12000000</v>
+      </c>
+      <c r="C49">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>20000000</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
